--- a/2022/Price List/Samsung Price List 25.04.2022.xlsx
+++ b/2022/Price List/Samsung Price List 25.04.2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -747,10 +747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
@@ -1153,8 +1153,11 @@
       <c r="F26" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
